--- a/biology/Zoologie/Colilodion/Colilodion.xlsx
+++ b/biology/Zoologie/Colilodion/Colilodion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colilodion, unique représentant de la tribu des Colilodionini, est un genre de coléoptères de la famille des Staphylinidae, regroupant huit espèces d'Asie du Sud-Est.
 </t>
@@ -511,9 +523,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de la super-tribu des Clavigeritae, dont celles du genre Colilodion, sont présumées myrmécophiles en raison de la présence de trichomes exsudant des phéromones apaisantes favorisant leur adoption par les fourmis[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de la super-tribu des Clavigeritae, dont celles du genre Colilodion, sont présumées myrmécophiles en raison de la présence de trichomes exsudant des phéromones apaisantes favorisant leur adoption par les fourmis,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le placement systématique exact de ce genre reste incertain : seul membre de la tribu des Colilodionini, il présente certains caractères le rapprochant des Clavigeritae, où il est placé par Claude Besuchet en 1991[1], et d'autres se rapportant aux Pselaphitae[3],[4]. Neuf espèces sont décrites[4],[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le placement systématique exact de ce genre reste incertain : seul membre de la tribu des Colilodionini, il présente certains caractères le rapprochant des Clavigeritae, où il est placé par Claude Besuchet en 1991, et d'autres se rapportant aux Pselaphitae,. Neuf espèces sont décrites, :
 Colilodion colongi Hlaváč, Vondráček &amp; Mohagan, 2018
 Colilodion concinnus Besuchet, 1991
 Colilodion incredibilis Besuchet, 1991
